--- a/docs/XML_SourceKey_Rev3.xlsx
+++ b/docs/XML_SourceKey_Rev3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robennet\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robennet\Documents\GitHub\fgp-metadata-proxy\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="271">
   <si>
     <t>id</t>
   </si>
@@ -834,6 +834,9 @@
   </si>
   <si>
     <t>Placeholder to accommodate 11th transferOption if a pair of French/English WMS links are required and number of links is maxxed out at 10.  This would be copied from resource_url_9</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1170,7 @@
   <dimension ref="A1:F156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118:E119"/>
+      <selection activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1618,6 +1621,9 @@
       <c r="C26" s="2" t="s">
         <v>179</v>
       </c>
+      <c r="D26" t="s">
+        <v>270</v>
+      </c>
       <c r="E26" s="1" t="s">
         <v>266</v>
       </c>
@@ -1768,6 +1774,9 @@
       <c r="C35" s="2">
         <v>643</v>
       </c>
+      <c r="D35" t="s">
+        <v>270</v>
+      </c>
       <c r="E35" s="1" t="s">
         <v>262</v>
       </c>
@@ -1782,6 +1791,9 @@
       <c r="C36" s="2">
         <v>646</v>
       </c>
+      <c r="D36" t="s">
+        <v>270</v>
+      </c>
       <c r="E36" s="1" t="s">
         <v>262</v>
       </c>
@@ -1796,6 +1808,9 @@
       <c r="C37" s="2">
         <v>943</v>
       </c>
+      <c r="D37" t="s">
+        <v>270</v>
+      </c>
       <c r="E37" s="1" t="s">
         <v>265</v>
       </c>
@@ -1810,6 +1825,9 @@
       <c r="C38" s="2">
         <v>946</v>
       </c>
+      <c r="D38" t="s">
+        <v>270</v>
+      </c>
       <c r="E38" s="1" t="s">
         <v>265</v>
       </c>
@@ -1824,6 +1842,9 @@
       <c r="C39" s="2">
         <v>673</v>
       </c>
+      <c r="D39" t="s">
+        <v>270</v>
+      </c>
       <c r="E39" s="1" t="s">
         <v>265</v>
       </c>
@@ -1838,6 +1859,9 @@
       <c r="C40" s="2">
         <v>676</v>
       </c>
+      <c r="D40" t="s">
+        <v>270</v>
+      </c>
       <c r="E40" s="1" t="s">
         <v>265</v>
       </c>
@@ -1852,6 +1876,9 @@
       <c r="C41" s="2">
         <v>703</v>
       </c>
+      <c r="D41" t="s">
+        <v>270</v>
+      </c>
       <c r="E41" s="1" t="s">
         <v>265</v>
       </c>
@@ -1866,6 +1893,9 @@
       <c r="C42" s="2">
         <v>706</v>
       </c>
+      <c r="D42" t="s">
+        <v>270</v>
+      </c>
       <c r="E42" s="1" t="s">
         <v>265</v>
       </c>
@@ -1880,6 +1910,9 @@
       <c r="C43" s="2">
         <v>733</v>
       </c>
+      <c r="D43" t="s">
+        <v>270</v>
+      </c>
       <c r="E43" s="1" t="s">
         <v>265</v>
       </c>
@@ -1894,6 +1927,9 @@
       <c r="C44" s="2">
         <v>736</v>
       </c>
+      <c r="D44" t="s">
+        <v>270</v>
+      </c>
       <c r="E44" s="1" t="s">
         <v>265</v>
       </c>
@@ -1908,6 +1944,9 @@
       <c r="C45" s="2">
         <v>763</v>
       </c>
+      <c r="D45" t="s">
+        <v>270</v>
+      </c>
       <c r="E45" s="1" t="s">
         <v>265</v>
       </c>
@@ -1922,6 +1961,9 @@
       <c r="C46" s="2">
         <v>766</v>
       </c>
+      <c r="D46" t="s">
+        <v>270</v>
+      </c>
       <c r="E46" s="1" t="s">
         <v>265</v>
       </c>
@@ -1936,6 +1978,9 @@
       <c r="C47" s="2">
         <v>793</v>
       </c>
+      <c r="D47" t="s">
+        <v>270</v>
+      </c>
       <c r="E47" s="1" t="s">
         <v>265</v>
       </c>
@@ -1950,6 +1995,9 @@
       <c r="C48" s="2">
         <v>796</v>
       </c>
+      <c r="D48" t="s">
+        <v>270</v>
+      </c>
       <c r="E48" s="1" t="s">
         <v>265</v>
       </c>
@@ -1964,6 +2012,9 @@
       <c r="C49" s="2">
         <v>823</v>
       </c>
+      <c r="D49" t="s">
+        <v>270</v>
+      </c>
       <c r="E49" s="1" t="s">
         <v>265</v>
       </c>
@@ -1978,6 +2029,9 @@
       <c r="C50" s="2">
         <v>826</v>
       </c>
+      <c r="D50" t="s">
+        <v>270</v>
+      </c>
       <c r="E50" s="1" t="s">
         <v>265</v>
       </c>
@@ -1992,6 +2046,9 @@
       <c r="C51" s="2">
         <v>853</v>
       </c>
+      <c r="D51" t="s">
+        <v>270</v>
+      </c>
       <c r="E51" s="1" t="s">
         <v>265</v>
       </c>
@@ -2006,6 +2063,9 @@
       <c r="C52" s="2">
         <v>856</v>
       </c>
+      <c r="D52" t="s">
+        <v>270</v>
+      </c>
       <c r="E52" s="1" t="s">
         <v>265</v>
       </c>
@@ -2020,6 +2080,9 @@
       <c r="C53" s="2">
         <v>883</v>
       </c>
+      <c r="D53" t="s">
+        <v>270</v>
+      </c>
       <c r="E53" s="1" t="s">
         <v>265</v>
       </c>
@@ -2034,6 +2097,9 @@
       <c r="C54" s="2">
         <v>886</v>
       </c>
+      <c r="D54" t="s">
+        <v>270</v>
+      </c>
       <c r="E54" s="1" t="s">
         <v>265</v>
       </c>
@@ -2048,6 +2114,9 @@
       <c r="C55" s="2">
         <v>913</v>
       </c>
+      <c r="D55" t="s">
+        <v>270</v>
+      </c>
       <c r="E55" s="1" t="s">
         <v>265</v>
       </c>
@@ -2062,6 +2131,9 @@
       <c r="C56" s="2">
         <v>916</v>
       </c>
+      <c r="D56" t="s">
+        <v>270</v>
+      </c>
       <c r="E56" s="1" t="s">
         <v>265</v>
       </c>
@@ -2076,6 +2148,9 @@
       <c r="C57" s="2">
         <v>638</v>
       </c>
+      <c r="D57" t="s">
+        <v>270</v>
+      </c>
       <c r="E57" s="1" t="s">
         <v>263</v>
       </c>
@@ -2090,6 +2165,9 @@
       <c r="C58" s="2">
         <v>646</v>
       </c>
+      <c r="D58" t="s">
+        <v>270</v>
+      </c>
       <c r="E58" s="1" t="s">
         <v>263</v>
       </c>
@@ -2104,6 +2182,9 @@
       <c r="C59" s="2">
         <v>938</v>
       </c>
+      <c r="D59" t="s">
+        <v>270</v>
+      </c>
       <c r="E59" s="1" t="s">
         <v>264</v>
       </c>
@@ -2118,6 +2199,9 @@
       <c r="C60" s="2">
         <v>946</v>
       </c>
+      <c r="D60" t="s">
+        <v>270</v>
+      </c>
       <c r="E60" s="1" t="s">
         <v>264</v>
       </c>
@@ -2132,6 +2216,9 @@
       <c r="C61" s="2">
         <v>668</v>
       </c>
+      <c r="D61" t="s">
+        <v>270</v>
+      </c>
       <c r="E61" s="1" t="s">
         <v>264</v>
       </c>
@@ -2146,6 +2233,9 @@
       <c r="C62" s="2">
         <v>676</v>
       </c>
+      <c r="D62" t="s">
+        <v>270</v>
+      </c>
       <c r="E62" s="1" t="s">
         <v>264</v>
       </c>
@@ -2160,6 +2250,9 @@
       <c r="C63" s="2">
         <v>698</v>
       </c>
+      <c r="D63" t="s">
+        <v>270</v>
+      </c>
       <c r="E63" s="1" t="s">
         <v>264</v>
       </c>
@@ -2174,6 +2267,9 @@
       <c r="C64" s="2">
         <v>706</v>
       </c>
+      <c r="D64" t="s">
+        <v>270</v>
+      </c>
       <c r="E64" s="1" t="s">
         <v>264</v>
       </c>
@@ -2188,6 +2284,9 @@
       <c r="C65" s="2">
         <v>728</v>
       </c>
+      <c r="D65" t="s">
+        <v>270</v>
+      </c>
       <c r="E65" s="1" t="s">
         <v>264</v>
       </c>
@@ -2202,6 +2301,9 @@
       <c r="C66" s="2">
         <v>736</v>
       </c>
+      <c r="D66" t="s">
+        <v>270</v>
+      </c>
       <c r="E66" s="1" t="s">
         <v>264</v>
       </c>
@@ -2216,6 +2318,9 @@
       <c r="C67" s="2">
         <v>758</v>
       </c>
+      <c r="D67" t="s">
+        <v>270</v>
+      </c>
       <c r="E67" s="1" t="s">
         <v>264</v>
       </c>
@@ -2230,6 +2335,9 @@
       <c r="C68" s="2">
         <v>766</v>
       </c>
+      <c r="D68" t="s">
+        <v>270</v>
+      </c>
       <c r="E68" s="1" t="s">
         <v>264</v>
       </c>
@@ -2244,6 +2352,9 @@
       <c r="C69" s="2">
         <v>788</v>
       </c>
+      <c r="D69" t="s">
+        <v>270</v>
+      </c>
       <c r="E69" s="1" t="s">
         <v>264</v>
       </c>
@@ -2258,6 +2369,9 @@
       <c r="C70" s="2">
         <v>796</v>
       </c>
+      <c r="D70" t="s">
+        <v>270</v>
+      </c>
       <c r="E70" s="1" t="s">
         <v>264</v>
       </c>
@@ -2272,6 +2386,9 @@
       <c r="C71" s="2">
         <v>818</v>
       </c>
+      <c r="D71" t="s">
+        <v>270</v>
+      </c>
       <c r="E71" s="1" t="s">
         <v>264</v>
       </c>
@@ -2286,6 +2403,9 @@
       <c r="C72" s="2">
         <v>826</v>
       </c>
+      <c r="D72" t="s">
+        <v>270</v>
+      </c>
       <c r="E72" s="1" t="s">
         <v>264</v>
       </c>
@@ -2300,6 +2420,9 @@
       <c r="C73" s="2">
         <v>848</v>
       </c>
+      <c r="D73" t="s">
+        <v>270</v>
+      </c>
       <c r="E73" s="1" t="s">
         <v>264</v>
       </c>
@@ -2314,6 +2437,9 @@
       <c r="C74" s="2">
         <v>856</v>
       </c>
+      <c r="D74" t="s">
+        <v>270</v>
+      </c>
       <c r="E74" s="1" t="s">
         <v>264</v>
       </c>
@@ -2328,6 +2454,9 @@
       <c r="C75" s="2">
         <v>878</v>
       </c>
+      <c r="D75" t="s">
+        <v>270</v>
+      </c>
       <c r="E75" s="1" t="s">
         <v>264</v>
       </c>
@@ -2342,6 +2471,9 @@
       <c r="C76" s="2">
         <v>886</v>
       </c>
+      <c r="D76" t="s">
+        <v>270</v>
+      </c>
       <c r="E76" s="1" t="s">
         <v>264</v>
       </c>
@@ -2356,6 +2488,9 @@
       <c r="C77" s="2">
         <v>908</v>
       </c>
+      <c r="D77" t="s">
+        <v>270</v>
+      </c>
       <c r="E77" s="1" t="s">
         <v>264</v>
       </c>
@@ -2370,6 +2505,9 @@
       <c r="C78" s="2">
         <v>916</v>
       </c>
+      <c r="D78" t="s">
+        <v>270</v>
+      </c>
       <c r="E78" s="1" t="s">
         <v>264</v>
       </c>
@@ -2452,6 +2590,9 @@
       <c r="C83" s="2">
         <v>935</v>
       </c>
+      <c r="D83" t="s">
+        <v>270</v>
+      </c>
       <c r="E83" s="1" t="s">
         <v>267</v>
       </c>
@@ -2466,6 +2607,9 @@
       <c r="C84" s="2">
         <v>938</v>
       </c>
+      <c r="D84" t="s">
+        <v>270</v>
+      </c>
       <c r="E84" s="1" t="s">
         <v>268</v>
       </c>
@@ -2752,6 +2896,9 @@
       <c r="C101" s="2">
         <v>632</v>
       </c>
+      <c r="D101" t="s">
+        <v>270</v>
+      </c>
       <c r="E101" s="1" t="s">
         <v>260</v>
       </c>
@@ -2766,6 +2913,9 @@
       <c r="C102" s="2">
         <v>662</v>
       </c>
+      <c r="D102" t="s">
+        <v>270</v>
+      </c>
       <c r="E102" s="1" t="s">
         <v>260</v>
       </c>
@@ -2780,6 +2930,9 @@
       <c r="C103" s="2">
         <v>692</v>
       </c>
+      <c r="D103" t="s">
+        <v>270</v>
+      </c>
       <c r="E103" s="1" t="s">
         <v>260</v>
       </c>
@@ -2794,6 +2947,9 @@
       <c r="C104" s="2">
         <v>932</v>
       </c>
+      <c r="D104" t="s">
+        <v>270</v>
+      </c>
       <c r="E104" s="1" t="s">
         <v>260</v>
       </c>
@@ -2808,6 +2964,9 @@
       <c r="C105" s="2">
         <v>722</v>
       </c>
+      <c r="D105" t="s">
+        <v>270</v>
+      </c>
       <c r="E105" s="1" t="s">
         <v>260</v>
       </c>
@@ -2822,6 +2981,9 @@
       <c r="C106" s="2">
         <v>752</v>
       </c>
+      <c r="D106" t="s">
+        <v>270</v>
+      </c>
       <c r="E106" s="1" t="s">
         <v>260</v>
       </c>
@@ -2836,6 +2998,9 @@
       <c r="C107" s="2">
         <v>782</v>
       </c>
+      <c r="D107" t="s">
+        <v>270</v>
+      </c>
       <c r="E107" s="1" t="s">
         <v>260</v>
       </c>
@@ -2850,6 +3015,9 @@
       <c r="C108" s="2">
         <v>812</v>
       </c>
+      <c r="D108" t="s">
+        <v>270</v>
+      </c>
       <c r="E108" s="1" t="s">
         <v>260</v>
       </c>
@@ -2864,6 +3032,9 @@
       <c r="C109" s="2">
         <v>842</v>
       </c>
+      <c r="D109" t="s">
+        <v>270</v>
+      </c>
       <c r="E109" s="1" t="s">
         <v>260</v>
       </c>
@@ -2878,6 +3049,9 @@
       <c r="C110" s="2">
         <v>872</v>
       </c>
+      <c r="D110" t="s">
+        <v>270</v>
+      </c>
       <c r="E110" s="1" t="s">
         <v>260</v>
       </c>
@@ -2892,6 +3066,9 @@
       <c r="C111" s="2">
         <v>902</v>
       </c>
+      <c r="D111" t="s">
+        <v>270</v>
+      </c>
       <c r="E111" s="1" t="s">
         <v>260</v>
       </c>
@@ -2957,6 +3134,9 @@
       <c r="C115" s="2">
         <v>929</v>
       </c>
+      <c r="D115" t="s">
+        <v>270</v>
+      </c>
       <c r="E115" s="1" t="s">
         <v>269</v>
       </c>
@@ -3107,6 +3287,9 @@
       <c r="C124" s="2">
         <v>626</v>
       </c>
+      <c r="D124" t="s">
+        <v>270</v>
+      </c>
       <c r="E124" s="1" t="s">
         <v>261</v>
       </c>
@@ -3121,6 +3304,9 @@
       <c r="C125" s="2">
         <v>656</v>
       </c>
+      <c r="D125" t="s">
+        <v>270</v>
+      </c>
       <c r="E125" s="1" t="s">
         <v>261</v>
       </c>
@@ -3135,6 +3321,9 @@
       <c r="C126" s="2">
         <v>926</v>
       </c>
+      <c r="D126" t="s">
+        <v>270</v>
+      </c>
       <c r="E126" s="1" t="s">
         <v>261</v>
       </c>
@@ -3149,6 +3338,9 @@
       <c r="C127" s="2">
         <v>686</v>
       </c>
+      <c r="D127" t="s">
+        <v>270</v>
+      </c>
       <c r="E127" s="1" t="s">
         <v>261</v>
       </c>
@@ -3163,6 +3355,9 @@
       <c r="C128" s="2">
         <v>716</v>
       </c>
+      <c r="D128" t="s">
+        <v>270</v>
+      </c>
       <c r="E128" s="1" t="s">
         <v>261</v>
       </c>
@@ -3177,6 +3372,9 @@
       <c r="C129" s="2">
         <v>746</v>
       </c>
+      <c r="D129" t="s">
+        <v>270</v>
+      </c>
       <c r="E129" s="1" t="s">
         <v>261</v>
       </c>
@@ -3191,6 +3389,9 @@
       <c r="C130" s="2">
         <v>776</v>
       </c>
+      <c r="D130" t="s">
+        <v>270</v>
+      </c>
       <c r="E130" s="1" t="s">
         <v>261</v>
       </c>
@@ -3205,6 +3406,9 @@
       <c r="C131" s="2">
         <v>806</v>
       </c>
+      <c r="D131" t="s">
+        <v>270</v>
+      </c>
       <c r="E131" s="1" t="s">
         <v>261</v>
       </c>
@@ -3219,6 +3423,9 @@
       <c r="C132" s="2">
         <v>836</v>
       </c>
+      <c r="D132" t="s">
+        <v>270</v>
+      </c>
       <c r="E132" s="1" t="s">
         <v>261</v>
       </c>
@@ -3233,6 +3440,9 @@
       <c r="C133" s="2">
         <v>866</v>
       </c>
+      <c r="D133" t="s">
+        <v>270</v>
+      </c>
       <c r="E133" s="1" t="s">
         <v>261</v>
       </c>
@@ -3246,6 +3456,9 @@
       </c>
       <c r="C134" s="2">
         <v>896</v>
+      </c>
+      <c r="D134" t="s">
+        <v>270</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>261</v>
